--- a/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
+++ b/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>文档名称</t>
   </si>
@@ -62,11 +62,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>概要说明说明书1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要说明说明书1.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2016.03.18</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>概要说明说明书1.0</t>
+    <t>2016.03.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加基本功能描述和对应的时序图；增加系统用例图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1387,7 +1403,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
@@ -1426,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1452,10 +1468,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="39.65" customHeight="1">

--- a/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
+++ b/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\CM-Git\documents\4.概要设计说明书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\软件系统管理与配置\文档\概要设计说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>文档名称</t>
   </si>
@@ -62,27 +62,51 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>邱媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要说明说明书1.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱媛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加基本功能描述和对应的时序图    2、增加系统用例图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>概要说明说明书1.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>概要说明说明书1.1</t>
+    <t>完成概要说明说明书1.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2016.03.18</t>
+    <t>概要说明说明书2.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2016.03.25</t>
+    <t>2016.04.05</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>邱媛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加基本功能描述和对应的时序图；增加系统用例图</t>
+    <t>1、更新需求变更（增加市用户）部分的相关内容，特别是序列图、功能图和用例图    2、更新附录内容，并整理为“数据库设计”、“接口设计”和“UI”3个文件夹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +198,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -202,11 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,7 +1430,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
@@ -1416,7 +1443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="8"/>
@@ -1442,11 +1469,9 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -1469,31 +1494,47 @@
     </row>
     <row r="5" spans="1:5" ht="39.65" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.65" customHeight="1">

--- a/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
+++ b/documents/4.概要设计说明书/概要设计说明书版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>文档名称</t>
   </si>
@@ -78,35 +78,51 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2016.03.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要说明说明书1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成概要说明说明书1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更新需求变更（增加市用户）部分的相关内容，特别是序列图、功能图和用例图    2、更新附录内容并整理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要说明说明书2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要说明说明书3.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邱媛 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1、增加基本功能描述和对应的时序图    2、增加系统用例图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2016.03.18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.03.18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要说明说明书1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成概要说明说明书1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要说明说明书2.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.04.05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、更新需求变更（增加市用户）部分的相关内容，特别是序列图、功能图和用例图    2、更新附录内容，并整理为“数据库设计”、“接口设计”和“UI”3个文件夹</t>
+    <t>1、修改“3.2.2.功能模块描述”内容，主要为登录和退出登录部分    2、修改表格样式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -220,20 +236,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,8 +1445,8 @@
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="18" customHeight="1"/>
@@ -1443,13 +1459,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="39.65" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1458,22 +1474,22 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="39.65" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="39.65" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1494,16 +1510,16 @@
     </row>
     <row r="5" spans="1:5" ht="39.65" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>18</v>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1518,30 +1534,38 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.65" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.65" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="39.65" customHeight="1">
